--- a/data-raw/bls_cpi_u_rs.xlsx
+++ b/data-raw/bls_cpi_u_rs.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vsaenz\Documents\GitHub\R-intro-training\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9B82F7-8FF2-4514-8777-5A69BDA5ACC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="18960" windowHeight="11325"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -81,7 +82,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -166,12 +167,6 @@
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -191,6 +186,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -285,6 +286,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -320,6 +338,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -495,88 +530,88 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" customWidth="1"/>
-    <col min="2" max="14" width="6.83203125" customWidth="1"/>
-    <col min="15" max="15" width="47.83203125" customWidth="1"/>
+    <col min="1" max="1" width="7.296875" customWidth="1"/>
+    <col min="2" max="14" width="6.796875" customWidth="1"/>
+    <col min="15" max="15" width="47.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-    </row>
-    <row r="2" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+    </row>
+    <row r="2" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-    </row>
-    <row r="3" spans="1:15" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+    </row>
+    <row r="3" spans="1:15" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+    <row r="4" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-    </row>
-    <row r="5" spans="1:15" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+    </row>
+    <row r="5" spans="1:15" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -621,7 +656,7 @@
       </c>
       <c r="O6" s="4"/>
     </row>
-    <row r="7" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>1977</v>
       </c>
@@ -642,7 +677,7 @@
       <c r="N7" s="6"/>
       <c r="O7" s="4"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>1978</v>
       </c>
@@ -687,7 +722,7 @@
       </c>
       <c r="O8" s="4"/>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>1979</v>
       </c>
@@ -732,7 +767,7 @@
       </c>
       <c r="O9" s="4"/>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>1980</v>
       </c>
@@ -777,7 +812,7 @@
       </c>
       <c r="O10" s="4"/>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>1981</v>
       </c>
@@ -822,7 +857,7 @@
       </c>
       <c r="O11" s="4"/>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>1982</v>
       </c>
@@ -867,7 +902,7 @@
       </c>
       <c r="O12" s="4"/>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>1983</v>
       </c>
@@ -912,7 +947,7 @@
       </c>
       <c r="O13" s="4"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>1984</v>
       </c>
@@ -957,7 +992,7 @@
       </c>
       <c r="O14" s="4"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>1985</v>
       </c>
@@ -1002,7 +1037,7 @@
       </c>
       <c r="O15" s="4"/>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>1986</v>
       </c>
@@ -1047,7 +1082,7 @@
       </c>
       <c r="O16" s="4"/>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>1987</v>
       </c>
@@ -1092,7 +1127,7 @@
       </c>
       <c r="O17" s="4"/>
     </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>1988</v>
       </c>
@@ -1137,7 +1172,7 @@
       </c>
       <c r="O18" s="4"/>
     </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>1989</v>
       </c>
@@ -1182,7 +1217,7 @@
       </c>
       <c r="O19" s="4"/>
     </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>1990</v>
       </c>
@@ -1227,7 +1262,7 @@
       </c>
       <c r="O20" s="4"/>
     </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>1991</v>
       </c>
@@ -1272,7 +1307,7 @@
       </c>
       <c r="O21" s="4"/>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>1992</v>
       </c>
@@ -1317,7 +1352,7 @@
       </c>
       <c r="O22" s="4"/>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>1993</v>
       </c>
@@ -1362,7 +1397,7 @@
       </c>
       <c r="O23" s="4"/>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>1994</v>
       </c>
@@ -1407,7 +1442,7 @@
       </c>
       <c r="O24" s="4"/>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>1995</v>
       </c>
@@ -1452,7 +1487,7 @@
       </c>
       <c r="O25" s="4"/>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>1996</v>
       </c>
@@ -1497,7 +1532,7 @@
       </c>
       <c r="O26" s="4"/>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>1997</v>
       </c>
@@ -1542,7 +1577,7 @@
       </c>
       <c r="O27" s="4"/>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>1998</v>
       </c>
@@ -1587,7 +1622,7 @@
       </c>
       <c r="O28" s="4"/>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>1999</v>
       </c>
@@ -1632,7 +1667,7 @@
       </c>
       <c r="O29" s="4"/>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>2000</v>
       </c>
@@ -1677,7 +1712,7 @@
       </c>
       <c r="O30" s="4"/>
     </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>2001</v>
       </c>
@@ -1722,7 +1757,7 @@
       </c>
       <c r="O31" s="4"/>
     </row>
-    <row r="32" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>2002</v>
       </c>
@@ -1767,751 +1802,751 @@
       </c>
       <c r="O32" s="4"/>
     </row>
-    <row r="33" spans="1:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="12">
+    <row r="33" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="10">
         <v>2003</v>
       </c>
-      <c r="B33" s="13">
+      <c r="B33" s="11">
         <v>266.89999999999998</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="11">
         <v>269</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D33" s="12">
         <v>270.60000000000002</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E33" s="12">
         <v>269.89999999999998</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F33" s="11">
         <v>269.5</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G33" s="11">
         <v>269.89999999999998</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H33" s="11">
         <v>270.2</v>
       </c>
-      <c r="I33" s="13">
+      <c r="I33" s="11">
         <v>271.2</v>
       </c>
-      <c r="J33" s="13">
+      <c r="J33" s="11">
         <v>272</v>
       </c>
-      <c r="K33" s="13">
+      <c r="K33" s="11">
         <v>271.8</v>
       </c>
-      <c r="L33" s="13">
+      <c r="L33" s="11">
         <v>271</v>
       </c>
-      <c r="M33" s="13">
+      <c r="M33" s="11">
         <v>270.7</v>
       </c>
-      <c r="N33" s="15">
+      <c r="N33" s="13">
         <v>270.2</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="12">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="10">
         <v>2004</v>
       </c>
-      <c r="B34" s="13">
+      <c r="B34" s="11">
         <v>272.10000000000002</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="11">
         <v>273.60000000000002</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D34" s="12">
         <v>275.3</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E34" s="12">
         <v>276.2</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F34" s="11">
         <v>277.7</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G34" s="11">
         <v>278.60000000000002</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H34" s="11">
         <v>278.3</v>
       </c>
-      <c r="I34" s="13">
+      <c r="I34" s="11">
         <v>278.39999999999998</v>
       </c>
-      <c r="J34" s="13">
+      <c r="J34" s="11">
         <v>278.89999999999998</v>
       </c>
-      <c r="K34" s="13">
+      <c r="K34" s="11">
         <v>280.39999999999998</v>
       </c>
-      <c r="L34" s="13">
+      <c r="L34" s="11">
         <v>280.60000000000002</v>
       </c>
-      <c r="M34" s="13">
+      <c r="M34" s="11">
         <v>279.60000000000002</v>
       </c>
-      <c r="N34" s="15">
+      <c r="N34" s="13">
         <v>277.5</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="12">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="10">
         <v>2005</v>
       </c>
-      <c r="B35" s="13">
+      <c r="B35" s="11">
         <v>280.10000000000002</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="11">
         <v>281.7</v>
       </c>
-      <c r="D35" s="14">
+      <c r="D35" s="12">
         <v>283.89999999999998</v>
       </c>
-      <c r="E35" s="14">
+      <c r="E35" s="12">
         <v>285.8</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F35" s="11">
         <v>285.60000000000002</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G35" s="11">
         <v>285.7</v>
       </c>
-      <c r="H35" s="13">
+      <c r="H35" s="11">
         <v>287</v>
       </c>
-      <c r="I35" s="13">
+      <c r="I35" s="11">
         <v>288.5</v>
       </c>
-      <c r="J35" s="13">
+      <c r="J35" s="11">
         <v>292</v>
       </c>
-      <c r="K35" s="13">
+      <c r="K35" s="11">
         <v>292.60000000000002</v>
       </c>
-      <c r="L35" s="13">
+      <c r="L35" s="11">
         <v>290.3</v>
       </c>
-      <c r="M35" s="13">
+      <c r="M35" s="11">
         <v>289</v>
       </c>
-      <c r="N35" s="15">
+      <c r="N35" s="13">
         <v>286.89999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="12">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="10">
         <v>2006</v>
       </c>
-      <c r="B36" s="13">
+      <c r="B36" s="11">
         <v>291.3</v>
       </c>
-      <c r="C36" s="13">
+      <c r="C36" s="11">
         <v>291.89999999999998</v>
       </c>
-      <c r="D36" s="14">
+      <c r="D36" s="12">
         <v>293.60000000000002</v>
       </c>
-      <c r="E36" s="14">
+      <c r="E36" s="12">
         <v>296</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F36" s="11">
         <v>297.39999999999998</v>
       </c>
-      <c r="G36" s="13">
+      <c r="G36" s="11">
         <v>298.10000000000002</v>
       </c>
-      <c r="H36" s="13">
+      <c r="H36" s="11">
         <v>298.89999999999998</v>
       </c>
-      <c r="I36" s="13">
+      <c r="I36" s="11">
         <v>299.60000000000002</v>
       </c>
-      <c r="J36" s="13">
+      <c r="J36" s="11">
         <v>298.10000000000002</v>
       </c>
-      <c r="K36" s="13">
+      <c r="K36" s="11">
         <v>296.5</v>
       </c>
-      <c r="L36" s="13">
+      <c r="L36" s="11">
         <v>296</v>
       </c>
-      <c r="M36" s="13">
+      <c r="M36" s="11">
         <v>296.5</v>
       </c>
-      <c r="N36" s="15">
+      <c r="N36" s="13">
         <v>296.2</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="12">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="10">
         <v>2007</v>
       </c>
-      <c r="B37" s="13">
+      <c r="B37" s="11">
         <v>297.39999999999998</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C37" s="11">
         <v>299</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D37" s="12">
         <v>301.7</v>
       </c>
-      <c r="E37" s="14">
+      <c r="E37" s="12">
         <v>303.60000000000002</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F37" s="11">
         <v>305.5</v>
       </c>
-      <c r="G37" s="13">
+      <c r="G37" s="11">
         <v>306.10000000000002</v>
       </c>
-      <c r="H37" s="13">
+      <c r="H37" s="11">
         <v>306</v>
       </c>
-      <c r="I37" s="13">
+      <c r="I37" s="11">
         <v>305.5</v>
       </c>
-      <c r="J37" s="13">
+      <c r="J37" s="11">
         <v>306.3</v>
       </c>
-      <c r="K37" s="13">
+      <c r="K37" s="11">
         <v>306.89999999999998</v>
       </c>
-      <c r="L37" s="13">
+      <c r="L37" s="11">
         <v>308.8</v>
       </c>
-      <c r="M37" s="13">
+      <c r="M37" s="11">
         <v>308.60000000000002</v>
       </c>
-      <c r="N37" s="15">
+      <c r="N37" s="13">
         <v>304.60000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="12">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="10">
         <v>2008</v>
       </c>
-      <c r="B38" s="13">
+      <c r="B38" s="11">
         <v>310.10000000000002</v>
       </c>
-      <c r="C38" s="13">
+      <c r="C38" s="11">
         <v>311</v>
       </c>
-      <c r="D38" s="14">
+      <c r="D38" s="12">
         <v>313.7</v>
       </c>
-      <c r="E38" s="14">
+      <c r="E38" s="12">
         <v>315.60000000000002</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F38" s="11">
         <v>318.2</v>
       </c>
-      <c r="G38" s="13">
+      <c r="G38" s="11">
         <v>321.5</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H38" s="11">
         <v>323.2</v>
       </c>
-      <c r="I38" s="13">
+      <c r="I38" s="11">
         <v>321.89999999999998</v>
       </c>
-      <c r="J38" s="13">
+      <c r="J38" s="11">
         <v>321.39999999999998</v>
       </c>
-      <c r="K38" s="13">
+      <c r="K38" s="11">
         <v>318.2</v>
       </c>
-      <c r="L38" s="13">
+      <c r="L38" s="11">
         <v>312.10000000000002</v>
       </c>
-      <c r="M38" s="13">
+      <c r="M38" s="11">
         <v>308.8</v>
       </c>
-      <c r="N38" s="15">
+      <c r="N38" s="13">
         <v>316.3</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="12">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="10">
         <v>2009</v>
       </c>
-      <c r="B39" s="13">
+      <c r="B39" s="11">
         <v>310.2</v>
       </c>
-      <c r="C39" s="13">
+      <c r="C39" s="11">
         <v>311.7</v>
       </c>
-      <c r="D39" s="14">
+      <c r="D39" s="12">
         <v>312.5</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E39" s="12">
         <v>313.3</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F39" s="11">
         <v>314.2</v>
       </c>
-      <c r="G39" s="13">
+      <c r="G39" s="11">
         <v>316.89999999999998</v>
       </c>
-      <c r="H39" s="13">
+      <c r="H39" s="11">
         <v>316.39999999999998</v>
       </c>
-      <c r="I39" s="13">
+      <c r="I39" s="11">
         <v>317.10000000000002</v>
       </c>
-      <c r="J39" s="13">
+      <c r="J39" s="11">
         <v>317.3</v>
       </c>
-      <c r="K39" s="13">
+      <c r="K39" s="11">
         <v>317.60000000000002</v>
       </c>
-      <c r="L39" s="13">
+      <c r="L39" s="11">
         <v>317.8</v>
       </c>
-      <c r="M39" s="13">
+      <c r="M39" s="11">
         <v>317.3</v>
       </c>
-      <c r="N39" s="15">
+      <c r="N39" s="13">
         <v>315.2</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="12">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="10">
         <v>2010</v>
       </c>
-      <c r="B40" s="13">
+      <c r="B40" s="11">
         <v>318.3</v>
       </c>
-      <c r="C40" s="13">
+      <c r="C40" s="11">
         <v>318.39999999999998</v>
       </c>
-      <c r="D40" s="14">
+      <c r="D40" s="12">
         <v>319.7</v>
       </c>
-      <c r="E40" s="14">
+      <c r="E40" s="12">
         <v>320.3</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F40" s="11">
         <v>320.5</v>
       </c>
-      <c r="G40" s="13">
+      <c r="G40" s="11">
         <v>320.2</v>
       </c>
-      <c r="H40" s="13">
+      <c r="H40" s="11">
         <v>320.3</v>
       </c>
-      <c r="I40" s="13">
+      <c r="I40" s="11">
         <v>320.7</v>
       </c>
-      <c r="J40" s="13">
+      <c r="J40" s="11">
         <v>320.89999999999998</v>
       </c>
-      <c r="K40" s="13">
+      <c r="K40" s="11">
         <v>321.3</v>
       </c>
-      <c r="L40" s="13">
+      <c r="L40" s="11">
         <v>321.5</v>
       </c>
-      <c r="M40" s="13">
+      <c r="M40" s="11">
         <v>322</v>
       </c>
-      <c r="N40" s="15">
+      <c r="N40" s="13">
         <v>320.39999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="12">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="10">
         <v>2011</v>
       </c>
-      <c r="B41" s="13">
+      <c r="B41" s="11">
         <v>323.60000000000002</v>
       </c>
-      <c r="C41" s="13">
+      <c r="C41" s="11">
         <v>325.2</v>
       </c>
-      <c r="D41" s="14">
+      <c r="D41" s="12">
         <v>328.3</v>
       </c>
-      <c r="E41" s="14">
+      <c r="E41" s="12">
         <v>330.5</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F41" s="11">
         <v>332</v>
       </c>
-      <c r="G41" s="13">
+      <c r="G41" s="11">
         <v>331.7</v>
       </c>
-      <c r="H41" s="13">
+      <c r="H41" s="11">
         <v>332</v>
       </c>
-      <c r="I41" s="13">
+      <c r="I41" s="11">
         <v>332.9</v>
       </c>
-      <c r="J41" s="13">
+      <c r="J41" s="11">
         <v>333.4</v>
       </c>
-      <c r="K41" s="13">
+      <c r="K41" s="11">
         <v>332.7</v>
       </c>
-      <c r="L41" s="13">
+      <c r="L41" s="11">
         <v>332.4</v>
       </c>
-      <c r="M41" s="13">
+      <c r="M41" s="11">
         <v>331.6</v>
       </c>
-      <c r="N41" s="15">
+      <c r="N41" s="13">
         <v>330.5</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="12">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="10">
         <v>2012</v>
       </c>
-      <c r="B42" s="13">
+      <c r="B42" s="11">
         <v>333.1</v>
       </c>
-      <c r="C42" s="13">
+      <c r="C42" s="11">
         <v>334.6</v>
       </c>
-      <c r="D42" s="14">
+      <c r="D42" s="12">
         <v>337.1</v>
       </c>
-      <c r="E42" s="14">
+      <c r="E42" s="12">
         <v>338.1</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F42" s="11">
         <v>337.7</v>
       </c>
-      <c r="G42" s="13">
+      <c r="G42" s="11">
         <v>337.3</v>
       </c>
-      <c r="H42" s="13">
+      <c r="H42" s="11">
         <v>336.7</v>
       </c>
-      <c r="I42" s="13">
+      <c r="I42" s="11">
         <v>338.6</v>
       </c>
-      <c r="J42" s="13">
+      <c r="J42" s="11">
         <v>340.1</v>
       </c>
-      <c r="K42" s="13">
+      <c r="K42" s="11">
         <v>340</v>
       </c>
-      <c r="L42" s="13">
+      <c r="L42" s="11">
         <v>338.4</v>
       </c>
-      <c r="M42" s="13">
+      <c r="M42" s="11">
         <v>337.5</v>
       </c>
-      <c r="N42" s="15">
+      <c r="N42" s="13">
         <v>337.5</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="12">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="10">
         <v>2013</v>
       </c>
-      <c r="B43" s="13">
+      <c r="B43" s="11">
         <v>338.6</v>
       </c>
-      <c r="C43" s="13">
+      <c r="C43" s="11">
         <v>341.4</v>
       </c>
-      <c r="D43" s="14">
+      <c r="D43" s="12">
         <v>342.2</v>
       </c>
-      <c r="E43" s="14">
+      <c r="E43" s="12">
         <v>341.9</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F43" s="11">
         <v>342.5</v>
       </c>
-      <c r="G43" s="13">
+      <c r="G43" s="11">
         <v>343.3</v>
       </c>
-      <c r="H43" s="13">
+      <c r="H43" s="11">
         <v>343.5</v>
       </c>
-      <c r="I43" s="13">
+      <c r="I43" s="11">
         <v>343.9</v>
       </c>
-      <c r="J43" s="13">
+      <c r="J43" s="11">
         <v>344.3</v>
       </c>
-      <c r="K43" s="13">
+      <c r="K43" s="11">
         <v>343.4</v>
       </c>
-      <c r="L43" s="13">
+      <c r="L43" s="11">
         <v>342.8</v>
       </c>
-      <c r="M43" s="13">
+      <c r="M43" s="11">
         <v>342.8</v>
       </c>
-      <c r="N43" s="15">
+      <c r="N43" s="13">
         <v>342.5</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="12">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="10">
         <v>2014</v>
       </c>
-      <c r="B44" s="13">
+      <c r="B44" s="11">
         <v>344.1</v>
       </c>
-      <c r="C44" s="13">
+      <c r="C44" s="11">
         <v>345.4</v>
       </c>
-      <c r="D44" s="14">
+      <c r="D44" s="12">
         <v>347.6</v>
       </c>
-      <c r="E44" s="14">
+      <c r="E44" s="12">
         <v>348.7</v>
       </c>
-      <c r="F44" s="13">
+      <c r="F44" s="11">
         <v>350</v>
       </c>
-      <c r="G44" s="13">
+      <c r="G44" s="11">
         <v>350.7</v>
       </c>
-      <c r="H44" s="13">
+      <c r="H44" s="11">
         <v>350.5</v>
       </c>
-      <c r="I44" s="13">
+      <c r="I44" s="11">
         <v>349.9</v>
       </c>
-      <c r="J44" s="13">
+      <c r="J44" s="11">
         <v>350.2</v>
       </c>
-      <c r="K44" s="13">
+      <c r="K44" s="11">
         <v>349.3</v>
       </c>
-      <c r="L44" s="13">
+      <c r="L44" s="11">
         <v>347.5</v>
       </c>
-      <c r="M44" s="13">
+      <c r="M44" s="11">
         <v>345.6</v>
       </c>
-      <c r="N44" s="15">
+      <c r="N44" s="13">
         <v>348.3</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="12">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="10">
         <v>2015</v>
       </c>
-      <c r="B45" s="13">
+      <c r="B45" s="11">
         <v>344</v>
       </c>
-      <c r="C45" s="13">
+      <c r="C45" s="11">
         <v>345.5</v>
       </c>
-      <c r="D45" s="14">
+      <c r="D45" s="12">
         <v>347.5</v>
       </c>
-      <c r="E45" s="14">
+      <c r="E45" s="12">
         <v>348.3</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F45" s="11">
         <v>350</v>
       </c>
-      <c r="G45" s="13">
+      <c r="G45" s="11">
         <v>351.3</v>
       </c>
-      <c r="H45" s="13">
+      <c r="H45" s="11">
         <v>351.3</v>
       </c>
-      <c r="I45" s="13">
+      <c r="I45" s="11">
         <v>350.8</v>
       </c>
-      <c r="J45" s="13">
+      <c r="J45" s="11">
         <v>350.3</v>
       </c>
-      <c r="K45" s="13">
+      <c r="K45" s="11">
         <v>350.2</v>
       </c>
-      <c r="L45" s="13">
+      <c r="L45" s="11">
         <v>349.4</v>
       </c>
-      <c r="M45" s="13">
+      <c r="M45" s="11">
         <v>348.3</v>
       </c>
-      <c r="N45" s="15">
+      <c r="N45" s="13">
         <v>348.9</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="12">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="10">
         <v>2016</v>
       </c>
-      <c r="B46" s="13">
+      <c r="B46" s="11">
         <v>348.8</v>
       </c>
-      <c r="C46" s="13">
+      <c r="C46" s="11">
         <v>349.1</v>
       </c>
-      <c r="D46" s="14">
+      <c r="D46" s="12">
         <v>350.6</v>
       </c>
-      <c r="E46" s="14">
+      <c r="E46" s="12">
         <v>352.3</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F46" s="11">
         <v>353.7</v>
       </c>
-      <c r="G46" s="13">
+      <c r="G46" s="11">
         <v>354.9</v>
       </c>
-      <c r="H46" s="13">
+      <c r="H46" s="11">
         <v>354.3</v>
       </c>
-      <c r="I46" s="13">
+      <c r="I46" s="11">
         <v>354.7</v>
       </c>
-      <c r="J46" s="13">
+      <c r="J46" s="11">
         <v>355.5</v>
       </c>
-      <c r="K46" s="13">
+      <c r="K46" s="11">
         <v>356</v>
       </c>
-      <c r="L46" s="13">
+      <c r="L46" s="11">
         <v>355.4</v>
       </c>
-      <c r="M46" s="13">
+      <c r="M46" s="11">
         <v>355.5</v>
       </c>
-      <c r="N46" s="15">
+      <c r="N46" s="13">
         <v>353.4</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="12">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="10">
         <v>2017</v>
       </c>
-      <c r="B47" s="13">
+      <c r="B47" s="11">
         <v>357.6</v>
       </c>
-      <c r="C47" s="13">
+      <c r="C47" s="11">
         <v>358.7</v>
       </c>
-      <c r="D47" s="14">
+      <c r="D47" s="12">
         <v>359</v>
       </c>
-      <c r="E47" s="14">
+      <c r="E47" s="12">
         <v>360.1</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F47" s="11">
         <v>360.4</v>
       </c>
-      <c r="G47" s="13">
+      <c r="G47" s="11">
         <v>360.7</v>
       </c>
-      <c r="H47" s="13">
+      <c r="H47" s="11">
         <v>360.5</v>
       </c>
-      <c r="I47" s="13">
+      <c r="I47" s="11">
         <v>361.6</v>
       </c>
-      <c r="J47" s="13">
+      <c r="J47" s="11">
         <v>363.5</v>
       </c>
-      <c r="K47" s="13">
+      <c r="K47" s="11">
         <v>363.2</v>
       </c>
-      <c r="L47" s="13">
+      <c r="L47" s="11">
         <v>363.3</v>
       </c>
-      <c r="M47" s="13">
+      <c r="M47" s="11">
         <v>363.1</v>
       </c>
-      <c r="N47" s="15">
+      <c r="N47" s="13">
         <v>361</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="12">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="10">
         <v>2018</v>
       </c>
-      <c r="B48" s="13">
+      <c r="B48" s="11">
         <v>365</v>
       </c>
-      <c r="C48" s="13">
+      <c r="C48" s="11">
         <v>366.7</v>
       </c>
-      <c r="D48" s="14">
+      <c r="D48" s="12">
         <v>367.5</v>
       </c>
-      <c r="E48" s="14">
+      <c r="E48" s="12">
         <v>369</v>
       </c>
-      <c r="F48" s="13">
+      <c r="F48" s="11">
         <v>370.5</v>
       </c>
-      <c r="G48" s="13">
+      <c r="G48" s="11">
         <v>371.1</v>
       </c>
-      <c r="H48" s="13">
+      <c r="H48" s="11">
         <v>371.1</v>
       </c>
-      <c r="I48" s="13">
+      <c r="I48" s="11">
         <v>371.3</v>
       </c>
-      <c r="J48" s="13">
+      <c r="J48" s="11">
         <v>371.8</v>
       </c>
-      <c r="K48" s="13">
+      <c r="K48" s="11">
         <v>372.4</v>
       </c>
-      <c r="L48" s="13">
+      <c r="L48" s="11">
         <v>371.2</v>
       </c>
-      <c r="M48" s="13">
+      <c r="M48" s="11">
         <v>370</v>
       </c>
-      <c r="N48" s="15">
+      <c r="N48" s="13">
         <v>369.8</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="12">
+    <row r="49" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="10">
         <v>2019</v>
       </c>
-      <c r="B49" s="13">
+      <c r="B49" s="11">
         <v>370.7</v>
       </c>
-      <c r="C49" s="13">
+      <c r="C49" s="11">
         <v>372.2</v>
       </c>
-      <c r="D49" s="14">
+      <c r="D49" s="12">
         <v>374.3</v>
       </c>
-      <c r="E49" s="14">
+      <c r="E49" s="12">
         <v>376.3</v>
       </c>
-      <c r="F49" s="13">
+      <c r="F49" s="11">
         <v>377.1</v>
       </c>
-      <c r="G49" s="13">
+      <c r="G49" s="11">
         <v>377.2</v>
       </c>
-      <c r="H49" s="13">
+      <c r="H49" s="11">
         <v>377.8</v>
       </c>
-      <c r="I49" s="13">
+      <c r="I49" s="11">
         <v>377.8</v>
       </c>
-      <c r="J49" s="13">
+      <c r="J49" s="11">
         <v>378.1</v>
       </c>
-      <c r="K49" s="13">
+      <c r="K49" s="11">
         <v>379</v>
       </c>
-      <c r="L49" s="13">
+      <c r="L49" s="11">
         <v>378.8</v>
       </c>
-      <c r="M49" s="13">
+      <c r="M49" s="11">
         <v>378.5</v>
       </c>
-      <c r="N49" s="15">
+      <c r="N49" s="13">
         <v>376.5</v>
       </c>
     </row>
